--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1064351.987892083</v>
+        <v>-1067210.827148182</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>252.6218413963988</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>79.51149230610433</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>230.537049464724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4.123877065558363</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>211.3642502306418</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.86879754300899</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0.3694209852473403</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>19.98946990210323</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.2792495146819521</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>125.2196898520602</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>124.6098789861637</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>128.2338798984626</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -1075,7 +1075,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>126.4617428240386</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>321.7669394085237</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.71316050133774</v>
+        <v>411.7131605013377</v>
       </c>
       <c r="H8" t="n">
-        <v>302.7130465232155</v>
+        <v>302.7130465232154</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.222583384339</v>
       </c>
       <c r="T8" t="n">
-        <v>207.3824761862336</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0584867467327</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>342.3361845232627</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>135.4229241411586</v>
       </c>
       <c r="H9" t="n">
-        <v>93.68655899720456</v>
+        <v>93.68655899720451</v>
       </c>
       <c r="I9" t="n">
-        <v>23.27095204830816</v>
+        <v>23.27095204830803</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.0089980845821</v>
+        <v>136.008998084582</v>
       </c>
       <c r="T9" t="n">
         <v>192.4233910313751</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8150272768924</v>
+        <v>169.1518046988402</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>49.96254818947489</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>104.8947123989307</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>221.0658120081901</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2312024107025</v>
+        <v>213.0566078052979</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>32.0893064352432</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620685</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8432760127576</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.32106446352483</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>335.9464125187627</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>21.39379534248008</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440902</v>
@@ -1582,10 +1582,10 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>86.47402644698008</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417098</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444138</v>
@@ -1664,10 +1664,10 @@
         <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174149</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>62.36981422367101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>105.3305008047043</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444138</v>
@@ -1898,13 +1898,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X17" t="n">
         <v>369.7311006784691</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>39.56681219551052</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>75.00788511617587</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187867</v>
@@ -2144,7 +2144,7 @@
         <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.5740289795526</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,16 +2293,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>80.90831282609541</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,10 +2375,10 @@
         <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701361</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>130.5513683573773</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2764,10 +2764,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>185.7223172888152</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2801,13 +2801,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652613</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860056</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300.4385797407429</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="C2" t="n">
-        <v>300.4385797407429</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="D2" t="n">
-        <v>300.4385797407429</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="E2" t="n">
-        <v>300.4385797407429</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="F2" t="n">
-        <v>300.4385797407429</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672985</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515901</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.59818340306</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991314</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358409</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>820.230080101654</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>820.230080101654</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388467</v>
+        <v>553.8524235344762</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388467</v>
+        <v>553.8524235344762</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388467</v>
+        <v>553.8524235344762</v>
       </c>
       <c r="Y2" t="n">
-        <v>555.6121569088225</v>
+        <v>553.8524235344762</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>333.4345074562801</v>
+        <v>360.9315366218661</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2689750668272</v>
+        <v>360.9315366218661</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>338.8740072302307</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267545</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293595</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560893</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413021</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="U3" t="n">
-        <v>709.4101432413021</v>
+        <v>823.0203935556005</v>
       </c>
       <c r="V3" t="n">
-        <v>709.4101432413021</v>
+        <v>823.0203935556005</v>
       </c>
       <c r="W3" t="n">
-        <v>709.4101432413021</v>
+        <v>568.783036827399</v>
       </c>
       <c r="X3" t="n">
-        <v>709.4101432413021</v>
+        <v>360.9315366218661</v>
       </c>
       <c r="Y3" t="n">
-        <v>501.6498444763482</v>
+        <v>360.9315366218661</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.2137498124562</v>
+        <v>608.5939046205085</v>
       </c>
       <c r="C4" t="n">
-        <v>171.2137498124562</v>
+        <v>439.6577216926016</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>439.2845691822508</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407077</v>
+        <v>829.3864837640386</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407077</v>
+        <v>829.3864837640386</v>
       </c>
       <c r="V4" t="n">
-        <v>671.3785036348208</v>
+        <v>829.3864837640386</v>
       </c>
       <c r="W4" t="n">
-        <v>671.3785036348208</v>
+        <v>829.3864837640386</v>
       </c>
       <c r="X4" t="n">
-        <v>443.3889527368035</v>
+        <v>829.3864837640386</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.5963735932734</v>
+        <v>608.5939046205085</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276843</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276843</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276843</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276843</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356496</v>
+        <v>41.28849413961871</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.421463841153</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>840.421463841153</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>840.1393936243026</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571245</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899465</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.00642392276843</v>
+        <v>574.0438072739746</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>652.7312295849122</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="C6" t="n">
-        <v>478.2782003037852</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="D6" t="n">
-        <v>329.3437906425339</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E6" t="n">
-        <v>202.8592554384327</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>648.3904695545989</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166548</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166548</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166548</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="V6" t="n">
-        <v>652.7312295849122</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="W6" t="n">
-        <v>652.7312295849122</v>
+        <v>732.1778770049735</v>
       </c>
       <c r="X6" t="n">
-        <v>652.7312295849122</v>
+        <v>524.3263767994407</v>
       </c>
       <c r="Y6" t="n">
-        <v>652.7312295849122</v>
+        <v>316.5660780344868</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>927.1163858403295</v>
+        <v>744.4145270104677</v>
       </c>
       <c r="C7" t="n">
-        <v>927.1163858403295</v>
+        <v>744.4145270104677</v>
       </c>
       <c r="D7" t="n">
-        <v>776.9997464279937</v>
+        <v>744.4145270104677</v>
       </c>
       <c r="E7" t="n">
-        <v>629.0866528456006</v>
+        <v>596.5014334280746</v>
       </c>
       <c r="F7" t="n">
-        <v>482.1967053476902</v>
+        <v>466.9722618134659</v>
       </c>
       <c r="G7" t="n">
-        <v>313.6273447026937</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="V7" t="n">
-        <v>927.1163858403295</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="W7" t="n">
-        <v>927.1163858403295</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="X7" t="n">
-        <v>927.1163858403295</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="Y7" t="n">
-        <v>927.1163858403295</v>
+        <v>926.0629918407075</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1161.58825454625</v>
+        <v>2232.085732049233</v>
       </c>
       <c r="C8" t="n">
-        <v>1161.58825454625</v>
+        <v>1863.123215108821</v>
       </c>
       <c r="D8" t="n">
-        <v>1161.58825454625</v>
+        <v>1504.857516502071</v>
       </c>
       <c r="E8" t="n">
-        <v>775.8000019480062</v>
+        <v>1179.84040598841</v>
       </c>
       <c r="F8" t="n">
-        <v>364.8140971583987</v>
+        <v>768.8545011988027</v>
       </c>
       <c r="G8" t="n">
-        <v>352.9826219045221</v>
+        <v>352.9826219045222</v>
       </c>
       <c r="H8" t="n">
-        <v>47.2118678406681</v>
+        <v>47.21186784066828</v>
       </c>
       <c r="I8" t="n">
-        <v>47.2118678406681</v>
+        <v>47.21186784066828</v>
       </c>
       <c r="J8" t="n">
-        <v>169.5906758132803</v>
+        <v>169.5906758132811</v>
       </c>
       <c r="K8" t="n">
-        <v>403.7433037768808</v>
+        <v>403.7433037768824</v>
       </c>
       <c r="L8" t="n">
-        <v>731.1321058153637</v>
+        <v>731.1321058153671</v>
       </c>
       <c r="M8" t="n">
-        <v>1127.084666596061</v>
+        <v>1127.084666596066</v>
       </c>
       <c r="N8" t="n">
-        <v>1534.05796214468</v>
+        <v>1534.057962144686</v>
       </c>
       <c r="O8" t="n">
-        <v>1905.016043479817</v>
+        <v>1905.016043479824</v>
       </c>
       <c r="P8" t="n">
-        <v>2187.119182621868</v>
+        <v>2187.119182621876</v>
       </c>
       <c r="Q8" t="n">
-        <v>2350.79414504738</v>
+        <v>2350.794145047388</v>
       </c>
       <c r="R8" t="n">
-        <v>2360.593392033405</v>
+        <v>2360.593392033414</v>
       </c>
       <c r="S8" t="n">
-        <v>2360.593392033405</v>
+        <v>2232.085732049233</v>
       </c>
       <c r="T8" t="n">
-        <v>2151.116143360442</v>
+        <v>2232.085732049233</v>
       </c>
       <c r="U8" t="n">
-        <v>1897.521712303136</v>
+        <v>2232.085732049233</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.521712303136</v>
+        <v>2232.085732049233</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.521712303136</v>
+        <v>2232.085732049233</v>
       </c>
       <c r="X8" t="n">
-        <v>1551.727586522062</v>
+        <v>2232.085732049233</v>
       </c>
       <c r="Y8" t="n">
-        <v>1161.58825454625</v>
+        <v>2232.085732049233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3010522734061</v>
+        <v>784.7664943002911</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8480229922791</v>
+        <v>610.3134650191641</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9136133310278</v>
+        <v>461.3790553579128</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6761583255724</v>
+        <v>302.1416003524573</v>
       </c>
       <c r="F9" t="n">
         <v>302.1416003524573</v>
@@ -4875,58 +4875,58 @@
         <v>165.3507678866405</v>
       </c>
       <c r="H9" t="n">
-        <v>70.71788001067634</v>
+        <v>70.7178800106764</v>
       </c>
       <c r="I9" t="n">
-        <v>47.2118678406681</v>
+        <v>47.21186784066828</v>
       </c>
       <c r="J9" t="n">
-        <v>101.2820005333979</v>
+        <v>101.2820005333984</v>
       </c>
       <c r="K9" t="n">
-        <v>533.6718788366757</v>
+        <v>533.6718788366768</v>
       </c>
       <c r="L9" t="n">
-        <v>809.3458848770499</v>
+        <v>809.3458848770518</v>
       </c>
       <c r="M9" t="n">
-        <v>1150.401315395593</v>
+        <v>1150.401315395596</v>
       </c>
       <c r="N9" t="n">
-        <v>1514.892113233603</v>
+        <v>1514.892113233607</v>
       </c>
       <c r="O9" t="n">
-        <v>1826.110188999321</v>
+        <v>1826.110188999325</v>
       </c>
       <c r="P9" t="n">
-        <v>2256.464953989689</v>
+        <v>2256.464953989697</v>
       </c>
       <c r="Q9" t="n">
-        <v>2360.593392033405</v>
+        <v>2360.593392033414</v>
       </c>
       <c r="R9" t="n">
-        <v>2360.593392033405</v>
+        <v>2360.593392033414</v>
       </c>
       <c r="S9" t="n">
-        <v>2223.210565685342</v>
+        <v>2223.210565685351</v>
       </c>
       <c r="T9" t="n">
-        <v>2028.843504037489</v>
+        <v>2028.843504037497</v>
       </c>
       <c r="U9" t="n">
-        <v>1800.747516889112</v>
+        <v>1857.98309525079</v>
       </c>
       <c r="V9" t="n">
-        <v>1565.59540865737</v>
+        <v>1622.830987019047</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.128188263961</v>
+        <v>1368.593630290846</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.276688058428</v>
+        <v>1160.742130085313</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.516389293474</v>
+        <v>952.9818313203591</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>364.6787355473364</v>
+        <v>831.6446514699722</v>
       </c>
       <c r="C10" t="n">
-        <v>364.6787355473364</v>
+        <v>662.7084685420654</v>
       </c>
       <c r="D10" t="n">
-        <v>364.6787355473364</v>
+        <v>512.5918291297296</v>
       </c>
       <c r="E10" t="n">
-        <v>364.6787355473364</v>
+        <v>364.6787355473365</v>
       </c>
       <c r="F10" t="n">
-        <v>364.6787355473364</v>
+        <v>364.6787355473365</v>
       </c>
       <c r="G10" t="n">
-        <v>196.6173025315067</v>
+        <v>196.6173025315068</v>
       </c>
       <c r="H10" t="n">
-        <v>47.2118678406681</v>
+        <v>47.21186784066828</v>
       </c>
       <c r="I10" t="n">
-        <v>47.2118678406681</v>
+        <v>47.21186784066828</v>
       </c>
       <c r="J10" t="n">
-        <v>67.48625549556762</v>
+        <v>67.486255495568</v>
       </c>
       <c r="K10" t="n">
-        <v>230.6401391719455</v>
+        <v>230.6401391719462</v>
       </c>
       <c r="L10" t="n">
-        <v>494.9473729645387</v>
+        <v>494.9473729645398</v>
       </c>
       <c r="M10" t="n">
-        <v>784.0114154846126</v>
+        <v>784.0114154846142</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.636777585315</v>
+        <v>1071.636777585318</v>
       </c>
       <c r="O10" t="n">
-        <v>1321.289057484695</v>
+        <v>1321.289057484698</v>
       </c>
       <c r="P10" t="n">
-        <v>1511.389029473807</v>
+        <v>1511.38902947381</v>
       </c>
       <c r="Q10" t="n">
-        <v>1559.569316268029</v>
+        <v>1559.569316268032</v>
       </c>
       <c r="R10" t="n">
-        <v>1453.615061319614</v>
+        <v>1559.569316268032</v>
       </c>
       <c r="S10" t="n">
-        <v>1453.615061319614</v>
+        <v>1559.569316268032</v>
       </c>
       <c r="T10" t="n">
-        <v>1230.316261311341</v>
+        <v>1336.270516259759</v>
       </c>
       <c r="U10" t="n">
-        <v>941.1938346338638</v>
+        <v>1121.061821506933</v>
       </c>
       <c r="V10" t="n">
-        <v>686.509346427977</v>
+        <v>1121.061821506933</v>
       </c>
       <c r="W10" t="n">
-        <v>397.0921763910164</v>
+        <v>831.6446514699722</v>
       </c>
       <c r="X10" t="n">
-        <v>364.6787355473364</v>
+        <v>831.6446514699722</v>
       </c>
       <c r="Y10" t="n">
-        <v>364.6787355473364</v>
+        <v>831.6446514699722</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905846</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965434</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D11" t="n">
         <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I11" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127287</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304025</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.913419421677</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100995</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820545</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476974</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.42939920686</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.96364094578</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969968</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I12" t="n">
-        <v>92.8116232260805</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J12" t="n">
-        <v>92.8116232260805</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K12" t="n">
-        <v>423.3203657894393</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L12" t="n">
-        <v>914.0526986331906</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>1506.071052885318</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N12" t="n">
-        <v>1506.071052885318</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="O12" t="n">
-        <v>2052.947527885512</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P12" t="n">
-        <v>2286.888151551083</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q12" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.4721904516374</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>781.5360075237305</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>631.4193681113948</v>
+        <v>343.9423506097374</v>
       </c>
       <c r="E13" t="n">
-        <v>631.4193681113948</v>
+        <v>343.9423506097374</v>
       </c>
       <c r="F13" t="n">
-        <v>484.5294206134844</v>
+        <v>197.0524031118271</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880632</v>
+        <v>197.0524031118271</v>
       </c>
       <c r="H13" t="n">
         <v>175.4425088264937</v>
       </c>
       <c r="I13" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
         <v>1238.413883213792</v>
@@ -5230,19 +5230,19 @@
         <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1957.667456821981</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.319955360385</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1580.902785323424</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1352.913234425407</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.120655281877</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5279,49 +5279,49 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362687</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>991.7436897307781</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>822.8075068028712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>672.6908673905355</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>524.7777738081423</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570813</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580256</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603198</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947395</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741509</v>
+        <v>1722.776592304617</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704548</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1394.184733704548</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>1173.392154561018</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5744,31 +5744,31 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5786,16 +5786,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.776592304622</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X22" t="n">
-        <v>1494.787041406604</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1273.994462263074</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5993,7 +5993,7 @@
         <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398594</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180517</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D25" t="n">
-        <v>449.485266605716</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>449.485266605716</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>449.485266605716</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
@@ -6257,7 +6257,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908938</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2009.464245195835</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
@@ -6476,13 +6476,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398594</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6835,19 +6835,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7333,10 +7333,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7366,13 +7366,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
@@ -7497,10 +7497,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>97.32166909127216</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8152,10 +8152,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.006563314041</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775106</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,13 +8304,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>5.262887399594575</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167812</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>201.9271595570028</v>
+        <v>201.9271595570058</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.43426352462869</v>
+        <v>26.43426352462846</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776178</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>132.7782232971189</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>64.03837846862882</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>59.03006886233129</v>
       </c>
       <c r="Y2" t="n">
-        <v>155.7008891913296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22692,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22708,16 +22708,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.246052032965</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.29152613729479</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>50.29152613729087</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>119.0601944494738</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>165.6636168768479</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>104.8770068749568</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.026286001653</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>120.3791545843329</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>105.8542358274207</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>211.5151132204151</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.257951202384675</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>205.6146855104956</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.97276993489157</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>100.4621571004289</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-2.293720896561331e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-3.197442310920451e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1213168.816932231</v>
+        <v>1213168.816932232</v>
       </c>
     </row>
     <row r="6">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170368.8479073156</v>
+        <v>170368.8479073155</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="E2" t="n">
-        <v>200669.9429095076</v>
+        <v>200669.9429095077</v>
       </c>
       <c r="F2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="G2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="H2" t="n">
         <v>201786.6499225014</v>
-      </c>
-      <c r="G2" t="n">
-        <v>201786.6499225015</v>
-      </c>
-      <c r="H2" t="n">
-        <v>201786.6499225015</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225015</v>
@@ -26350,10 +26350,10 @@
         <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660712</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>340213.3253972766</v>
+        <v>340213.3253972789</v>
       </c>
       <c r="E3" t="n">
-        <v>543878.4104782812</v>
+        <v>543878.4104782793</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504147</v>
+        <v>11452.26311504135</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>102045.3439359522</v>
+        <v>102045.3439359528</v>
       </c>
       <c r="M3" t="n">
-        <v>142045.5180133289</v>
+        <v>142045.5180133285</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704841</v>
+        <v>3077.017355704785</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169778.072777859</v>
+        <v>169778.0727778588</v>
       </c>
       <c r="C4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>152425.5083014648</v>
+        <v>152425.5083014641</v>
       </c>
       <c r="E4" t="n">
-        <v>9940.611700543444</v>
+        <v>9940.611700543546</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768796</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768796</v>
+        <v>9947.144321768807</v>
       </c>
       <c r="H4" t="n">
+        <v>9947.144321768865</v>
+      </c>
+      <c r="I4" t="n">
         <v>9947.144321768817</v>
       </c>
-      <c r="I4" t="n">
-        <v>9947.144321768863</v>
-      </c>
       <c r="J4" t="n">
+        <v>9947.144321768843</v>
+      </c>
+      <c r="K4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.144321768857</v>
       </c>
       <c r="L4" t="n">
         <v>17938.00358486234</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486233</v>
+        <v>17938.00358486234</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486233</v>
+        <v>17938.00358486234</v>
       </c>
       <c r="O4" t="n">
         <v>17938.00358486234</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486234</v>
+        <v>17938.00358486235</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88973.99831047712</v>
+        <v>88973.99831047727</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-742545.0086660028</v>
+        <v>-742893.9246115901</v>
       </c>
       <c r="C6" t="n">
-        <v>-107225.3270688998</v>
+        <v>-107225.3270688999</v>
       </c>
       <c r="D6" t="n">
-        <v>-376352.3895431477</v>
+        <v>-376352.3895431494</v>
       </c>
       <c r="E6" t="n">
-        <v>-453291.2077831554</v>
+        <v>-453337.1127787193</v>
       </c>
       <c r="F6" t="n">
-        <v>79264.71266178401</v>
+        <v>79229.97473634848</v>
       </c>
       <c r="G6" t="n">
-        <v>90716.97577682554</v>
+        <v>90682.23785138993</v>
       </c>
       <c r="H6" t="n">
-        <v>90716.97577682559</v>
+        <v>90682.23785138976</v>
       </c>
       <c r="I6" t="n">
-        <v>90716.97577682548</v>
+        <v>90682.2378513899</v>
       </c>
       <c r="J6" t="n">
-        <v>21717.82135771139</v>
+        <v>21683.08343227576</v>
       </c>
       <c r="K6" t="n">
-        <v>90716.97577682559</v>
+        <v>90682.23785138981</v>
       </c>
       <c r="L6" t="n">
-        <v>-17887.02090865876</v>
+        <v>-17887.02090865931</v>
       </c>
       <c r="M6" t="n">
-        <v>-57887.19498603547</v>
+        <v>-57887.19498603502</v>
       </c>
       <c r="N6" t="n">
-        <v>81081.30567158827</v>
+        <v>81081.30567158833</v>
       </c>
       <c r="O6" t="n">
-        <v>84158.3230272933</v>
+        <v>84158.32302729311</v>
       </c>
       <c r="P6" t="n">
-        <v>84158.32302729318</v>
+        <v>84158.32302729346</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>892.9072821820806</v>
+        <v>892.9072821820823</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>590.1483480083513</v>
+        <v>590.1483480083534</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>278.8522684126023</v>
+        <v>278.8522684126041</v>
       </c>
       <c r="E3" t="n">
-        <v>465.1337665343052</v>
+        <v>465.1337665343035</v>
       </c>
       <c r="F3" t="n">
         <v>9.934451625288148</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>326.434468006845</v>
+        <v>326.4344680068473</v>
       </c>
       <c r="E4" t="n">
-        <v>569.996942317655</v>
+        <v>569.9969423176533</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>326.434468006845</v>
+        <v>326.4344680068473</v>
       </c>
       <c r="M4" t="n">
-        <v>569.996942317655</v>
+        <v>569.9969423176533</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>326.434468006845</v>
+        <v>326.4344680068473</v>
       </c>
       <c r="M4" t="n">
-        <v>569.996942317655</v>
+        <v>569.9969423176533</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>130.1120002670818</v>
+        <v>119.0199616619745</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862871</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>310.7010318161377</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>168.5846219227574</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>14.49023727291285</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.9631826389283</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>392.8447047436068</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27673,16 +27673,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.4730089554529</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590676</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>32.4253906033407</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>127.0851041747559</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>17.1871681244686</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27831,7 +27831,7 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>125.6759004997894</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>60.1634306637381</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>72.08872174598511</v>
+        <v>72.08872174598486</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.2225833843391</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.3824761862336</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0584867467327</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>27.39491615520632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27986,13 +27986,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>56.66322257805228</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>201.7324349714447</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107.028552149253</v>
+        <v>107.0285521492529</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>104.8947123989305</v>
       </c>
       <c r="S10" t="n">
         <v>195.955888857578</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>73.17459460540459</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>193.620348953794</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28381,19 +28381,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.105986424022382e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-8.449034595841292e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28564,22 +28564,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-4.390164247462086e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28807,10 +28807,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.101817416101383e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G20" t="n">
         <v>-6.436047097567693e-14</v>
@@ -28864,7 +28864,7 @@
         <v>-6.436047097567693e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>-6.436047097567693e-14</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>-6.436047097567693e-14</v>
       </c>
       <c r="V23" t="n">
+        <v>-1.221555270729305e-12</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>-6.436047097567693e-14</v>
-      </c>
-      <c r="W23" t="n">
-        <v>-6.436047097567693e-14</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-6.431426819679993e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.589577013797306</v>
+        <v>3.589577013797313</v>
       </c>
       <c r="H8" t="n">
-        <v>36.76175559255167</v>
+        <v>36.76175559255174</v>
       </c>
       <c r="I8" t="n">
-        <v>138.3871678244208</v>
+        <v>138.3871678244211</v>
       </c>
       <c r="J8" t="n">
-        <v>304.6608620747794</v>
+        <v>304.66086207478</v>
       </c>
       <c r="K8" t="n">
-        <v>456.6076570688195</v>
+        <v>456.6076570688203</v>
       </c>
       <c r="L8" t="n">
-        <v>566.4621746048189</v>
+        <v>566.46217460482</v>
       </c>
       <c r="M8" t="n">
-        <v>630.2983148239367</v>
+        <v>630.298314823938</v>
       </c>
       <c r="N8" t="n">
-        <v>640.4972005143884</v>
+        <v>640.4972005143896</v>
       </c>
       <c r="O8" t="n">
-        <v>604.8033440834414</v>
+        <v>604.8033440834425</v>
       </c>
       <c r="P8" t="n">
-        <v>516.1856615553203</v>
+        <v>516.1856615553213</v>
       </c>
       <c r="Q8" t="n">
-        <v>387.6339347487041</v>
+        <v>387.6339347487049</v>
       </c>
       <c r="R8" t="n">
-        <v>225.4837670929452</v>
+        <v>225.4837670929457</v>
       </c>
       <c r="S8" t="n">
-        <v>81.7974862019062</v>
+        <v>81.79748620190635</v>
       </c>
       <c r="T8" t="n">
-        <v>15.71337337789772</v>
+        <v>15.71337337789775</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2871661611037845</v>
+        <v>0.287166161103785</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.920593022052023</v>
+        <v>1.920593022052026</v>
       </c>
       <c r="H9" t="n">
-        <v>18.54888523929191</v>
+        <v>18.54888523929194</v>
       </c>
       <c r="I9" t="n">
-        <v>66.12568080310692</v>
+        <v>66.12568080310704</v>
       </c>
       <c r="J9" t="n">
-        <v>181.4539223158887</v>
+        <v>181.4539223158891</v>
       </c>
       <c r="K9" t="n">
-        <v>310.1336547933742</v>
+        <v>310.1336547933748</v>
       </c>
       <c r="L9" t="n">
-        <v>417.0129717398482</v>
+        <v>417.012971739849</v>
       </c>
       <c r="M9" t="n">
-        <v>486.6344687892339</v>
+        <v>486.6344687892348</v>
       </c>
       <c r="N9" t="n">
-        <v>499.5142351520302</v>
+        <v>499.5142351520312</v>
       </c>
       <c r="O9" t="n">
-        <v>456.957937137088</v>
+        <v>456.9579371370889</v>
       </c>
       <c r="P9" t="n">
-        <v>366.7490306758814</v>
+        <v>366.7490306758821</v>
       </c>
       <c r="Q9" t="n">
-        <v>245.1620145342196</v>
+        <v>245.1620145342201</v>
       </c>
       <c r="R9" t="n">
-        <v>119.2452404393353</v>
+        <v>119.2452404393355</v>
       </c>
       <c r="S9" t="n">
-        <v>35.67417301925575</v>
+        <v>35.67417301925581</v>
       </c>
       <c r="T9" t="n">
-        <v>7.741337663446527</v>
+        <v>7.741337663446541</v>
       </c>
       <c r="U9" t="n">
-        <v>0.12635480408237</v>
+        <v>0.1263548040823702</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.610160672787358</v>
+        <v>1.610160672787361</v>
       </c>
       <c r="H10" t="n">
-        <v>14.31579216350943</v>
+        <v>14.31579216350946</v>
       </c>
       <c r="I10" t="n">
-        <v>48.4219227780053</v>
+        <v>48.4219227780054</v>
       </c>
       <c r="J10" t="n">
-        <v>113.8383595660662</v>
+        <v>113.8383595660664</v>
       </c>
       <c r="K10" t="n">
-        <v>187.0713945292948</v>
+        <v>187.0713945292952</v>
       </c>
       <c r="L10" t="n">
-        <v>239.386978570586</v>
+        <v>239.3869785705865</v>
       </c>
       <c r="M10" t="n">
-        <v>252.4000043715674</v>
+        <v>252.4000043715679</v>
       </c>
       <c r="N10" t="n">
-        <v>246.3984964093602</v>
+        <v>246.3984964093607</v>
       </c>
       <c r="O10" t="n">
-        <v>227.5888921863441</v>
+        <v>227.5888921863446</v>
       </c>
       <c r="P10" t="n">
-        <v>194.7416144614819</v>
+        <v>194.7416144614822</v>
       </c>
       <c r="Q10" t="n">
-        <v>134.8289996094942</v>
+        <v>134.8289996094944</v>
       </c>
       <c r="R10" t="n">
-        <v>72.39867897823883</v>
+        <v>72.39867897823898</v>
       </c>
       <c r="S10" t="n">
-        <v>28.06070917939423</v>
+        <v>28.06070917939428</v>
       </c>
       <c r="T10" t="n">
-        <v>6.879777420091438</v>
+        <v>6.879777420091451</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08782694578840146</v>
+        <v>0.08782694578840164</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
@@ -31853,16 +31853,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>392.9727799466968</v>
       </c>
       <c r="P12" t="n">
-        <v>370.2780676825828</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -32072,10 +32072,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32309,19 +32309,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>324.9782573297443</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,34 +32546,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,10 +32783,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,10 +33494,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,13 +33731,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,13 +33968,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>172.7600739089026</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496425</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>217.4386117456603</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015063</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>123.6149575480931</v>
+        <v>123.6149575480937</v>
       </c>
       <c r="K8" t="n">
-        <v>236.5178060238389</v>
+        <v>236.5178060238398</v>
       </c>
       <c r="L8" t="n">
-        <v>330.6957596348316</v>
+        <v>330.6957596348328</v>
       </c>
       <c r="M8" t="n">
-        <v>399.952081596664</v>
+        <v>399.9520815966653</v>
       </c>
       <c r="N8" t="n">
-        <v>411.0841369177975</v>
+        <v>411.0841369177987</v>
       </c>
       <c r="O8" t="n">
-        <v>374.7051326617546</v>
+        <v>374.7051326617558</v>
       </c>
       <c r="P8" t="n">
-        <v>284.9526658000507</v>
+        <v>284.9526658000518</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.3282448742546</v>
+        <v>165.3282448742554</v>
       </c>
       <c r="R8" t="n">
-        <v>9.898229278813119</v>
+        <v>9.898229278813545</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>54.616295649222</v>
+        <v>54.61629564922237</v>
       </c>
       <c r="K9" t="n">
-        <v>436.7574528315938</v>
+        <v>436.7574528315944</v>
       </c>
       <c r="L9" t="n">
-        <v>278.458591959974</v>
+        <v>278.4585919599748</v>
       </c>
       <c r="M9" t="n">
-        <v>344.5004348672156</v>
+        <v>344.5004348672165</v>
       </c>
       <c r="N9" t="n">
-        <v>368.1725230686969</v>
+        <v>368.1725230686978</v>
       </c>
       <c r="O9" t="n">
-        <v>314.3616926926435</v>
+        <v>314.3616926926445</v>
       </c>
       <c r="P9" t="n">
-        <v>434.701782818554</v>
+        <v>434.7017828185577</v>
       </c>
       <c r="Q9" t="n">
-        <v>105.1802404481981</v>
+        <v>105.1802404481986</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.47917944939346</v>
+        <v>20.47917944939367</v>
       </c>
       <c r="K10" t="n">
-        <v>164.801902703412</v>
+        <v>164.8019027034124</v>
       </c>
       <c r="L10" t="n">
-        <v>266.9770038309022</v>
+        <v>266.9770038309026</v>
       </c>
       <c r="M10" t="n">
-        <v>291.983881333408</v>
+        <v>291.9838813334085</v>
       </c>
       <c r="N10" t="n">
-        <v>290.5306687885888</v>
+        <v>290.5306687885893</v>
       </c>
       <c r="O10" t="n">
-        <v>252.1740201003838</v>
+        <v>252.1740201003843</v>
       </c>
       <c r="P10" t="n">
-        <v>192.0201737263754</v>
+        <v>192.0201737263757</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.66695635779978</v>
+        <v>48.66695635780003</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>250.3765355022524</v>
       </c>
       <c r="P12" t="n">
-        <v>236.3036602682525</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>187.1368183553853</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35978,13 +35978,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010408</v>
+        <v>426.2724270010401</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
